--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Edn1-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Edn1-Ednra.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Edn1</t>
+  </si>
+  <si>
+    <t>Ednra</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Edn1</t>
-  </si>
-  <si>
-    <t>Ednra</t>
   </si>
 </sst>
 </file>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.668177999999999</v>
+        <v>20.48107266666667</v>
       </c>
       <c r="H2">
-        <v>29.004534</v>
+        <v>61.443218</v>
       </c>
       <c r="I2">
-        <v>0.826615067350047</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="J2">
-        <v>0.8266150673500469</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.314108</v>
+        <v>6.134954333333333</v>
       </c>
       <c r="N2">
-        <v>3.942324</v>
+        <v>18.404863</v>
       </c>
       <c r="O2">
-        <v>0.05768654525237048</v>
+        <v>0.2326051299917221</v>
       </c>
       <c r="P2">
-        <v>0.05768654525237048</v>
+        <v>0.232605129991722</v>
       </c>
       <c r="Q2">
-        <v>12.705030055224</v>
+        <v>125.6504455076815</v>
       </c>
       <c r="R2">
-        <v>114.345270497016</v>
+        <v>1130.854009569134</v>
       </c>
       <c r="S2">
-        <v>0.04768456748897976</v>
+        <v>0.2107187540282832</v>
       </c>
       <c r="T2">
-        <v>0.04768456748897975</v>
+        <v>0.2107187540282832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.668177999999999</v>
+        <v>20.48107266666667</v>
       </c>
       <c r="H3">
-        <v>29.004534</v>
+        <v>61.443218</v>
       </c>
       <c r="I3">
-        <v>0.826615067350047</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="J3">
-        <v>0.8266150673500469</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.736649</v>
       </c>
       <c r="O3">
-        <v>0.2156358456095441</v>
+        <v>0.1862453502798354</v>
       </c>
       <c r="P3">
-        <v>0.2156358456095441</v>
+        <v>0.1862453502798353</v>
       </c>
       <c r="Q3">
-        <v>47.492181885174</v>
+        <v>100.6074596773869</v>
       </c>
       <c r="R3">
-        <v>427.429636966566</v>
+        <v>905.467137096482</v>
       </c>
       <c r="S3">
-        <v>0.1782478390416176</v>
+        <v>0.1687210774582862</v>
       </c>
       <c r="T3">
-        <v>0.1782478390416176</v>
+        <v>0.1687210774582862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.668177999999999</v>
+        <v>20.48107266666667</v>
       </c>
       <c r="H4">
-        <v>29.004534</v>
+        <v>61.443218</v>
       </c>
       <c r="I4">
-        <v>0.826615067350047</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="J4">
-        <v>0.8266150673500469</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0405</v>
+        <v>0.008733333333333334</v>
       </c>
       <c r="N4">
-        <v>0.1215</v>
+        <v>0.0262</v>
       </c>
       <c r="O4">
-        <v>0.001777863830614383</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="P4">
-        <v>0.001777863830614382</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="Q4">
-        <v>0.391561209</v>
+        <v>0.1788680346222222</v>
       </c>
       <c r="R4">
-        <v>3.524050881</v>
+        <v>1.6098123116</v>
       </c>
       <c r="S4">
-        <v>0.00146960903008252</v>
+        <v>0.0002999659033344079</v>
       </c>
       <c r="T4">
-        <v>0.00146960903008252</v>
+        <v>0.0002999659033344079</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.668177999999999</v>
+        <v>20.48107266666667</v>
       </c>
       <c r="H5">
-        <v>29.004534</v>
+        <v>61.443218</v>
       </c>
       <c r="I5">
-        <v>0.826615067350047</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="J5">
-        <v>0.8266150673500469</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.10639433333333</v>
+        <v>14.59271166666667</v>
       </c>
       <c r="N5">
-        <v>48.319183</v>
+        <v>43.778135</v>
       </c>
       <c r="O5">
-        <v>0.7070364426381673</v>
+        <v>0.5532787058762763</v>
       </c>
       <c r="P5">
-        <v>0.7070364426381672</v>
+        <v>0.5532787058762761</v>
       </c>
       <c r="Q5">
-        <v>155.719487352858</v>
+        <v>298.8743880487144</v>
       </c>
       <c r="R5">
-        <v>1401.475386175722</v>
+        <v>2689.86949243843</v>
       </c>
       <c r="S5">
-        <v>0.5844469766502863</v>
+        <v>0.5012193821210177</v>
       </c>
       <c r="T5">
-        <v>0.5844469766502861</v>
+        <v>0.5012193821210176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.668177999999999</v>
+        <v>20.48107266666667</v>
       </c>
       <c r="H6">
-        <v>29.004534</v>
+        <v>61.443218</v>
       </c>
       <c r="I6">
-        <v>0.826615067350047</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="J6">
-        <v>0.8266150673500469</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,42 +809,42 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4069286666666667</v>
+        <v>0.5433020000000001</v>
       </c>
       <c r="N6">
-        <v>1.220786</v>
+        <v>1.629906</v>
       </c>
       <c r="O6">
-        <v>0.01786330266930378</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="P6">
-        <v>0.01786330266930378</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="Q6">
-        <v>3.934258782636</v>
+        <v>11.12740774194533</v>
       </c>
       <c r="R6">
-        <v>35.408329043724</v>
+        <v>100.146669677508</v>
       </c>
       <c r="S6">
-        <v>0.01476607513908082</v>
+        <v>0.01866092464275464</v>
       </c>
       <c r="T6">
-        <v>0.01476607513908081</v>
+        <v>0.01866092464275464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.803962</v>
+        <v>20.48107266666667</v>
       </c>
       <c r="H7">
-        <v>2.411886</v>
+        <v>61.443218</v>
       </c>
       <c r="I7">
-        <v>0.06873757421272948</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="J7">
-        <v>0.06873757421272947</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.314108</v>
+        <v>0.1830566666666666</v>
       </c>
       <c r="N7">
-        <v>3.942324</v>
+        <v>0.5491699999999999</v>
       </c>
       <c r="O7">
-        <v>0.05768654525237048</v>
+        <v>0.006940543878949493</v>
       </c>
       <c r="P7">
-        <v>0.05768654525237048</v>
+        <v>0.006940543878949492</v>
       </c>
       <c r="Q7">
-        <v>1.056492895896</v>
+        <v>3.749196892117777</v>
       </c>
       <c r="R7">
-        <v>9.508436063064</v>
+        <v>33.74277202906</v>
       </c>
       <c r="S7">
-        <v>0.003965233185360794</v>
+        <v>0.006287491417334229</v>
       </c>
       <c r="T7">
-        <v>0.003965233185360792</v>
+        <v>0.006287491417334227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>2.411886</v>
       </c>
       <c r="I8">
-        <v>0.06873757421272948</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="J8">
-        <v>0.06873757421272947</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.912216333333333</v>
+        <v>6.134954333333333</v>
       </c>
       <c r="N8">
-        <v>14.736649</v>
+        <v>18.404863</v>
       </c>
       <c r="O8">
-        <v>0.2156358456095441</v>
+        <v>0.2326051299917221</v>
       </c>
       <c r="P8">
-        <v>0.2156358456095441</v>
+        <v>0.232605129991722</v>
       </c>
       <c r="Q8">
-        <v>3.949235267779333</v>
+        <v>4.932270155735333</v>
       </c>
       <c r="R8">
-        <v>35.543117410014</v>
+        <v>44.390431401618</v>
       </c>
       <c r="S8">
-        <v>0.01482228494051071</v>
+        <v>0.008271533121495362</v>
       </c>
       <c r="T8">
-        <v>0.01482228494051071</v>
+        <v>0.00827153312149536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>2.411886</v>
       </c>
       <c r="I9">
-        <v>0.06873757421272948</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="J9">
-        <v>0.06873757421272947</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0405</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N9">
-        <v>0.1215</v>
+        <v>14.736649</v>
       </c>
       <c r="O9">
-        <v>0.001777863830614383</v>
+        <v>0.1862453502798354</v>
       </c>
       <c r="P9">
-        <v>0.001777863830614382</v>
+        <v>0.1862453502798353</v>
       </c>
       <c r="Q9">
-        <v>0.032560461</v>
+        <v>3.949235267779333</v>
       </c>
       <c r="R9">
-        <v>0.293044149</v>
+        <v>35.543117410014</v>
       </c>
       <c r="S9">
-        <v>0.0001222060469969836</v>
+        <v>0.006622960480789859</v>
       </c>
       <c r="T9">
-        <v>0.0001222060469969836</v>
+        <v>0.006622960480789858</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>2.411886</v>
       </c>
       <c r="I10">
-        <v>0.06873757421272948</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="J10">
-        <v>0.06873757421272947</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>16.10639433333333</v>
+        <v>0.008733333333333334</v>
       </c>
       <c r="N10">
-        <v>48.319183</v>
+        <v>0.0262</v>
       </c>
       <c r="O10">
-        <v>0.7070364426381673</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="P10">
-        <v>0.7070364426381672</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="Q10">
-        <v>12.94892900101533</v>
+        <v>0.007021268133333334</v>
       </c>
       <c r="R10">
-        <v>116.540361009138</v>
+        <v>0.0631914132</v>
       </c>
       <c r="S10">
-        <v>0.04859996994694528</v>
+        <v>1.177483188998356E-05</v>
       </c>
       <c r="T10">
-        <v>0.04859996994694527</v>
+        <v>1.177483188998356E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>2.411886</v>
       </c>
       <c r="I11">
-        <v>0.06873757421272948</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="J11">
-        <v>0.06873757421272947</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,60 +1119,60 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4069286666666667</v>
+        <v>14.59271166666667</v>
       </c>
       <c r="N11">
-        <v>1.220786</v>
+        <v>43.778135</v>
       </c>
       <c r="O11">
-        <v>0.01786330266930378</v>
+        <v>0.5532787058762763</v>
       </c>
       <c r="P11">
-        <v>0.01786330266930378</v>
+        <v>0.5532787058762761</v>
       </c>
       <c r="Q11">
-        <v>0.3271551847106666</v>
+        <v>11.73198565695666</v>
       </c>
       <c r="R11">
-        <v>2.944396662396</v>
+        <v>105.58787091261</v>
       </c>
       <c r="S11">
-        <v>0.001227880092915717</v>
+        <v>0.01967481603366433</v>
       </c>
       <c r="T11">
-        <v>0.001227880092915717</v>
+        <v>0.01967481603366433</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2108686666666667</v>
+        <v>0.803962</v>
       </c>
       <c r="H12">
-        <v>0.632606</v>
+        <v>2.411886</v>
       </c>
       <c r="I12">
-        <v>0.01802896234416467</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="J12">
-        <v>0.01802896234416467</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,90 +1181,90 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.314108</v>
+        <v>0.5433020000000001</v>
       </c>
       <c r="N12">
-        <v>3.942324</v>
+        <v>1.629906</v>
       </c>
       <c r="O12">
-        <v>0.05768654525237048</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="P12">
-        <v>0.05768654525237048</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="Q12">
-        <v>0.277104201816</v>
+        <v>0.4367941625240001</v>
       </c>
       <c r="R12">
-        <v>2.493937816344</v>
+        <v>3.931147462716</v>
       </c>
       <c r="S12">
-        <v>0.001040028552119939</v>
+        <v>0.0007325140895601352</v>
       </c>
       <c r="T12">
-        <v>0.001040028552119938</v>
+        <v>0.0007325140895601351</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.803962</v>
+      </c>
+      <c r="H13">
+        <v>2.411886</v>
+      </c>
+      <c r="I13">
+        <v>0.03556040712339288</v>
+      </c>
+      <c r="J13">
+        <v>0.03556040712339288</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.2108686666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.632606</v>
-      </c>
-      <c r="I13">
-        <v>0.01802896234416467</v>
-      </c>
-      <c r="J13">
-        <v>0.01802896234416467</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>4.912216333333333</v>
+        <v>0.1830566666666666</v>
       </c>
       <c r="N13">
-        <v>14.736649</v>
+        <v>0.5491699999999999</v>
       </c>
       <c r="O13">
-        <v>0.2156358456095441</v>
+        <v>0.006940543878949493</v>
       </c>
       <c r="P13">
-        <v>0.2156358456095441</v>
+        <v>0.006940543878949492</v>
       </c>
       <c r="Q13">
-        <v>1.035832508588222</v>
+        <v>0.1471706038466666</v>
       </c>
       <c r="R13">
-        <v>9.322492577294</v>
+        <v>1.32453543462</v>
       </c>
       <c r="S13">
-        <v>0.003887690540546578</v>
+        <v>0.0002468085659932164</v>
       </c>
       <c r="T13">
-        <v>0.003887690540546576</v>
+        <v>0.0002468085659932164</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2108686666666667</v>
+        <v>0.256138</v>
       </c>
       <c r="H14">
-        <v>0.632606</v>
+        <v>0.7684139999999999</v>
       </c>
       <c r="I14">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="J14">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0405</v>
+        <v>6.134954333333333</v>
       </c>
       <c r="N14">
-        <v>0.1215</v>
+        <v>18.404863</v>
       </c>
       <c r="O14">
-        <v>0.001777863830614383</v>
+        <v>0.2326051299917221</v>
       </c>
       <c r="P14">
-        <v>0.001777863830614382</v>
+        <v>0.232605129991722</v>
       </c>
       <c r="Q14">
-        <v>0.008540181000000001</v>
+        <v>1.571394933031333</v>
       </c>
       <c r="R14">
-        <v>0.076861629</v>
+        <v>14.142554397282</v>
       </c>
       <c r="S14">
-        <v>3.205304005519906E-05</v>
+        <v>0.002635266282079972</v>
       </c>
       <c r="T14">
-        <v>3.205304005519905E-05</v>
+        <v>0.002635266282079971</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2108686666666667</v>
+        <v>0.256138</v>
       </c>
       <c r="H15">
-        <v>0.632606</v>
+        <v>0.7684139999999999</v>
       </c>
       <c r="I15">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="J15">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.10639433333333</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N15">
-        <v>48.319183</v>
+        <v>14.736649</v>
       </c>
       <c r="O15">
-        <v>0.7070364426381673</v>
+        <v>0.1862453502798354</v>
       </c>
       <c r="P15">
-        <v>0.7070364426381672</v>
+        <v>0.1862453502798353</v>
       </c>
       <c r="Q15">
-        <v>3.396333897877555</v>
+        <v>1.258205267187333</v>
       </c>
       <c r="R15">
-        <v>30.567005080898</v>
+        <v>11.323847404686</v>
       </c>
       <c r="S15">
-        <v>0.01274713340027566</v>
+        <v>0.002110039842217111</v>
       </c>
       <c r="T15">
-        <v>0.01274713340027566</v>
+        <v>0.00211003984221711</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,75 +1396,75 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2108686666666667</v>
+        <v>0.256138</v>
       </c>
       <c r="H16">
-        <v>0.632606</v>
+        <v>0.7684139999999999</v>
       </c>
       <c r="I16">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="J16">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.4069286666666667</v>
+        <v>0.008733333333333334</v>
       </c>
       <c r="N16">
-        <v>1.220786</v>
+        <v>0.0262</v>
       </c>
       <c r="O16">
-        <v>0.01786330266930378</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="P16">
-        <v>0.01786330266930378</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="Q16">
-        <v>0.08580850536844445</v>
+        <v>0.002236938533333333</v>
       </c>
       <c r="R16">
-        <v>0.772276548316</v>
+        <v>0.0201324468</v>
       </c>
       <c r="S16">
-        <v>0.0003220568111672941</v>
+        <v>3.751398561917863E-06</v>
       </c>
       <c r="T16">
-        <v>0.000322056811167294</v>
+        <v>3.751398561917862E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.23172</v>
+        <v>0.256138</v>
       </c>
       <c r="H17">
-        <v>0.69516</v>
+        <v>0.7684139999999999</v>
       </c>
       <c r="I17">
-        <v>0.01981172082333951</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="J17">
-        <v>0.0198117208233395</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,43 +1491,43 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.314108</v>
+        <v>14.59271166666667</v>
       </c>
       <c r="N17">
-        <v>3.942324</v>
+        <v>43.778135</v>
       </c>
       <c r="O17">
-        <v>0.05768654525237048</v>
+        <v>0.5532787058762763</v>
       </c>
       <c r="P17">
-        <v>0.05768654525237048</v>
+        <v>0.5532787058762761</v>
       </c>
       <c r="Q17">
-        <v>0.3045051057599999</v>
+        <v>3.737747980876666</v>
       </c>
       <c r="R17">
-        <v>2.74054595184</v>
+        <v>33.63973182789</v>
       </c>
       <c r="S17">
-        <v>0.001142869729802905</v>
+        <v>0.006268291323757483</v>
       </c>
       <c r="T17">
-        <v>0.001142869729802905</v>
+        <v>0.006268291323757481</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.23172</v>
+        <v>0.256138</v>
       </c>
       <c r="H18">
-        <v>0.69516</v>
+        <v>0.7684139999999999</v>
       </c>
       <c r="I18">
-        <v>0.01981172082333951</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="J18">
-        <v>0.0198117208233395</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,42 +1553,42 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.912216333333333</v>
+        <v>0.5433020000000001</v>
       </c>
       <c r="N18">
-        <v>14.736649</v>
+        <v>1.629906</v>
       </c>
       <c r="O18">
-        <v>0.2156358456095441</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="P18">
-        <v>0.2156358456095441</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="Q18">
-        <v>1.13825876876</v>
+        <v>0.139160287676</v>
       </c>
       <c r="R18">
-        <v>10.24432891884</v>
+        <v>1.252442589084</v>
       </c>
       <c r="S18">
-        <v>0.004272117172721028</v>
+        <v>0.0002333750772695151</v>
       </c>
       <c r="T18">
-        <v>0.004272117172721026</v>
+        <v>0.0002333750772695151</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.23172</v>
+        <v>0.256138</v>
       </c>
       <c r="H19">
-        <v>0.69516</v>
+        <v>0.7684139999999999</v>
       </c>
       <c r="I19">
-        <v>0.01981172082333951</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="J19">
-        <v>0.0198117208233395</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.0405</v>
+        <v>0.1830566666666666</v>
       </c>
       <c r="N19">
-        <v>0.1215</v>
+        <v>0.5491699999999999</v>
       </c>
       <c r="O19">
-        <v>0.001777863830614383</v>
+        <v>0.006940543878949493</v>
       </c>
       <c r="P19">
-        <v>0.001777863830614382</v>
+        <v>0.006940543878949492</v>
       </c>
       <c r="Q19">
-        <v>0.009384660000000001</v>
+        <v>0.04688776848666665</v>
       </c>
       <c r="R19">
-        <v>0.08446194</v>
+        <v>0.4219899163799999</v>
       </c>
       <c r="S19">
-        <v>3.522254187404511E-05</v>
+        <v>7.863189115452032E-05</v>
       </c>
       <c r="T19">
-        <v>3.522254187404509E-05</v>
+        <v>7.863189115452029E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,13 +1644,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.23172</v>
+        <v>0.964784</v>
       </c>
       <c r="H20">
-        <v>0.69516</v>
+        <v>2.894352</v>
       </c>
       <c r="I20">
-        <v>0.01981172082333951</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="J20">
-        <v>0.0198117208233395</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.10639433333333</v>
+        <v>6.134954333333333</v>
       </c>
       <c r="N20">
-        <v>48.319183</v>
+        <v>18.404863</v>
       </c>
       <c r="O20">
-        <v>0.7070364426381673</v>
+        <v>0.2326051299917221</v>
       </c>
       <c r="P20">
-        <v>0.7070364426381672</v>
+        <v>0.232605129991722</v>
       </c>
       <c r="Q20">
-        <v>3.73217369492</v>
+        <v>5.918905781530666</v>
       </c>
       <c r="R20">
-        <v>33.58956325427999</v>
+        <v>53.270152033776</v>
       </c>
       <c r="S20">
-        <v>0.01400760861347447</v>
+        <v>0.009926144284293014</v>
       </c>
       <c r="T20">
-        <v>0.01400760861347446</v>
+        <v>0.009926144284293012</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.23172</v>
+        <v>0.964784</v>
       </c>
       <c r="H21">
-        <v>0.69516</v>
+        <v>2.894352</v>
       </c>
       <c r="I21">
-        <v>0.01981172082333951</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="J21">
-        <v>0.0198117208233395</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,43 +1739,43 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4069286666666667</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N21">
-        <v>1.220786</v>
+        <v>14.736649</v>
       </c>
       <c r="O21">
-        <v>0.01786330266930378</v>
+        <v>0.1862453502798354</v>
       </c>
       <c r="P21">
-        <v>0.01786330266930378</v>
+        <v>0.1862453502798353</v>
       </c>
       <c r="Q21">
-        <v>0.09429351064000001</v>
+        <v>4.739227722938667</v>
       </c>
       <c r="R21">
-        <v>0.84864159576</v>
+        <v>42.653049506448</v>
       </c>
       <c r="S21">
-        <v>0.0003539027654670619</v>
+        <v>0.007947796418858557</v>
       </c>
       <c r="T21">
-        <v>0.0003539027654670618</v>
+        <v>0.007947796418858557</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
       <c r="E22">
         <v>3</v>
       </c>
@@ -1783,60 +1783,60 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7237056666666667</v>
+        <v>0.964784</v>
       </c>
       <c r="H22">
-        <v>2.171117</v>
+        <v>2.894352</v>
       </c>
       <c r="I22">
-        <v>0.06187577518672881</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="J22">
-        <v>0.0618757751867288</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>1.314108</v>
+        <v>0.008733333333333334</v>
       </c>
       <c r="N22">
-        <v>3.942324</v>
+        <v>0.0262</v>
       </c>
       <c r="O22">
-        <v>0.05768654525237048</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="P22">
-        <v>0.05768654525237048</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="Q22">
-        <v>0.9510274062119999</v>
+        <v>0.008425780266666667</v>
       </c>
       <c r="R22">
-        <v>8.559246655908</v>
+        <v>0.0758320224</v>
       </c>
       <c r="S22">
-        <v>0.003569399705334735</v>
+        <v>1.413023178974367E-05</v>
       </c>
       <c r="T22">
-        <v>0.003569399705334733</v>
+        <v>1.413023178974367E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7237056666666667</v>
+        <v>0.964784</v>
       </c>
       <c r="H23">
-        <v>2.171117</v>
+        <v>2.894352</v>
       </c>
       <c r="I23">
-        <v>0.06187577518672881</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="J23">
-        <v>0.0618757751867288</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,42 +1863,42 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.912216333333333</v>
+        <v>14.59271166666667</v>
       </c>
       <c r="N23">
-        <v>14.736649</v>
+        <v>43.778135</v>
       </c>
       <c r="O23">
-        <v>0.2156358456095441</v>
+        <v>0.5532787058762763</v>
       </c>
       <c r="P23">
-        <v>0.2156358456095441</v>
+        <v>0.5532787058762761</v>
       </c>
       <c r="Q23">
-        <v>3.554998796325889</v>
+        <v>14.07881473261333</v>
       </c>
       <c r="R23">
-        <v>31.994989166933</v>
+        <v>126.70933259352</v>
       </c>
       <c r="S23">
-        <v>0.01334263510513631</v>
+        <v>0.02361050362109503</v>
       </c>
       <c r="T23">
-        <v>0.01334263510513631</v>
+        <v>0.02361050362109503</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,61 +1907,61 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7237056666666667</v>
+        <v>0.964784</v>
       </c>
       <c r="H24">
-        <v>2.171117</v>
+        <v>2.894352</v>
       </c>
       <c r="I24">
-        <v>0.06187577518672881</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="J24">
-        <v>0.0618757751867288</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.0405</v>
+        <v>0.5433020000000001</v>
       </c>
       <c r="N24">
-        <v>0.1215</v>
+        <v>1.629906</v>
       </c>
       <c r="O24">
-        <v>0.001777863830614383</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="P24">
-        <v>0.001777863830614382</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="Q24">
-        <v>0.0293100795</v>
+        <v>0.5241690767680001</v>
       </c>
       <c r="R24">
-        <v>0.2637907155</v>
+        <v>4.717521690912</v>
       </c>
       <c r="S24">
-        <v>0.000110006702695712</v>
+        <v>0.0008790438769272497</v>
       </c>
       <c r="T24">
-        <v>0.000110006702695712</v>
+        <v>0.0008790438769272496</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7237056666666667</v>
+        <v>0.964784</v>
       </c>
       <c r="H25">
-        <v>2.171117</v>
+        <v>2.894352</v>
       </c>
       <c r="I25">
-        <v>0.06187577518672881</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="J25">
-        <v>0.0618757751867288</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>16.10639433333333</v>
+        <v>0.1830566666666666</v>
       </c>
       <c r="N25">
-        <v>48.319183</v>
+        <v>0.5491699999999999</v>
       </c>
       <c r="O25">
-        <v>0.7070364426381673</v>
+        <v>0.006940543878949493</v>
       </c>
       <c r="P25">
-        <v>0.7070364426381672</v>
+        <v>0.006940543878949492</v>
       </c>
       <c r="Q25">
-        <v>11.65628884860122</v>
+        <v>0.1766101430933333</v>
       </c>
       <c r="R25">
-        <v>104.906599637411</v>
+        <v>1.58949128784</v>
       </c>
       <c r="S25">
-        <v>0.04374842797350373</v>
+        <v>0.0002961793661058599</v>
       </c>
       <c r="T25">
-        <v>0.04374842797350371</v>
+        <v>0.0002961793661058598</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.7237056666666667</v>
+        <v>0.1023896666666667</v>
       </c>
       <c r="H26">
-        <v>2.171117</v>
+        <v>0.307169</v>
       </c>
       <c r="I26">
-        <v>0.06187577518672881</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="J26">
-        <v>0.0618757751867288</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,42 +2049,42 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4069286666666667</v>
+        <v>6.134954333333333</v>
       </c>
       <c r="N26">
-        <v>1.220786</v>
+        <v>18.404863</v>
       </c>
       <c r="O26">
-        <v>0.01786330266930378</v>
+        <v>0.2326051299917221</v>
       </c>
       <c r="P26">
-        <v>0.01786330266930378</v>
+        <v>0.232605129991722</v>
       </c>
       <c r="Q26">
-        <v>0.2944965819957778</v>
+        <v>0.6281559292052222</v>
       </c>
       <c r="R26">
-        <v>2.650469237962</v>
+        <v>5.653403362847</v>
       </c>
       <c r="S26">
-        <v>0.001105305700058333</v>
+        <v>0.001053432275570491</v>
       </c>
       <c r="T26">
-        <v>0.001105305700058333</v>
+        <v>0.001053432275570491</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.05767233333333333</v>
+        <v>0.1023896666666667</v>
       </c>
       <c r="H27">
-        <v>0.173017</v>
+        <v>0.307169</v>
       </c>
       <c r="I27">
-        <v>0.00493090008299058</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="J27">
-        <v>0.004930900082990579</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,42 +2111,42 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.314108</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N27">
-        <v>3.942324</v>
+        <v>14.736649</v>
       </c>
       <c r="O27">
-        <v>0.05768654525237048</v>
+        <v>0.1862453502798354</v>
       </c>
       <c r="P27">
-        <v>0.05768654525237048</v>
+        <v>0.1862453502798353</v>
       </c>
       <c r="Q27">
-        <v>0.07578767461199999</v>
+        <v>0.5029601929645555</v>
       </c>
       <c r="R27">
-        <v>0.682089071508</v>
+        <v>4.526641736681</v>
       </c>
       <c r="S27">
-        <v>0.0002844465907723534</v>
+        <v>0.0008434760796835922</v>
       </c>
       <c r="T27">
-        <v>0.0002844465907723534</v>
+        <v>0.0008434760796835921</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,57 +2155,57 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.05767233333333333</v>
+        <v>0.1023896666666667</v>
       </c>
       <c r="H28">
-        <v>0.173017</v>
+        <v>0.307169</v>
       </c>
       <c r="I28">
-        <v>0.00493090008299058</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="J28">
-        <v>0.004930900082990579</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>4.912216333333333</v>
+        <v>0.008733333333333334</v>
       </c>
       <c r="N28">
-        <v>14.736649</v>
+        <v>0.0262</v>
       </c>
       <c r="O28">
-        <v>0.2156358456095441</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="P28">
-        <v>0.2156358456095441</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="Q28">
-        <v>0.2832989777814444</v>
+        <v>0.000894203088888889</v>
       </c>
       <c r="R28">
-        <v>2.549690800033</v>
+        <v>0.008047827800000001</v>
       </c>
       <c r="S28">
-        <v>0.001063278809011845</v>
+        <v>1.499599623205392E-06</v>
       </c>
       <c r="T28">
-        <v>0.001063278809011844</v>
+        <v>1.499599623205392E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -2217,57 +2217,57 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.05767233333333333</v>
+        <v>0.1023896666666667</v>
       </c>
       <c r="H29">
-        <v>0.173017</v>
+        <v>0.307169</v>
       </c>
       <c r="I29">
-        <v>0.00493090008299058</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="J29">
-        <v>0.004930900082990579</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.0405</v>
+        <v>14.59271166666667</v>
       </c>
       <c r="N29">
-        <v>0.1215</v>
+        <v>43.778135</v>
       </c>
       <c r="O29">
-        <v>0.001777863830614383</v>
+        <v>0.5532787058762763</v>
       </c>
       <c r="P29">
-        <v>0.001777863830614382</v>
+        <v>0.5532787058762761</v>
       </c>
       <c r="Q29">
-        <v>0.0023357295</v>
+        <v>1.494142883312778</v>
       </c>
       <c r="R29">
-        <v>0.0210215655</v>
+        <v>13.447285949815</v>
       </c>
       <c r="S29">
-        <v>8.76646890992241E-06</v>
+        <v>0.002505712776741786</v>
       </c>
       <c r="T29">
-        <v>8.766468909922405E-06</v>
+        <v>0.002505712776741785</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.05767233333333333</v>
+        <v>0.1023896666666667</v>
       </c>
       <c r="H30">
-        <v>0.173017</v>
+        <v>0.307169</v>
       </c>
       <c r="I30">
-        <v>0.00493090008299058</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="J30">
-        <v>0.004930900082990579</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,39 +2297,39 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>16.10639433333333</v>
+        <v>0.5433020000000001</v>
       </c>
       <c r="N30">
-        <v>48.319183</v>
+        <v>1.629906</v>
       </c>
       <c r="O30">
-        <v>0.7070364426381673</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="P30">
-        <v>0.7070364426381672</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="Q30">
-        <v>0.9288933427901109</v>
+        <v>0.05562851067933334</v>
       </c>
       <c r="R30">
-        <v>8.360040085110999</v>
+        <v>0.500656596114</v>
       </c>
       <c r="S30">
-        <v>0.003486326053681904</v>
+        <v>9.32903215061148E-05</v>
       </c>
       <c r="T30">
-        <v>0.003486326053681903</v>
+        <v>9.329032150611479E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -2341,46 +2341,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.05767233333333333</v>
+        <v>0.1023896666666667</v>
       </c>
       <c r="H31">
-        <v>0.173017</v>
+        <v>0.307169</v>
       </c>
       <c r="I31">
-        <v>0.00493090008299058</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="J31">
-        <v>0.004930900082990579</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.4069286666666667</v>
+        <v>0.1830566666666666</v>
       </c>
       <c r="N31">
-        <v>1.220786</v>
+        <v>0.5491699999999999</v>
       </c>
       <c r="O31">
-        <v>0.01786330266930378</v>
+        <v>0.006940543878949493</v>
       </c>
       <c r="P31">
-        <v>0.01786330266930378</v>
+        <v>0.006940543878949492</v>
       </c>
       <c r="Q31">
-        <v>0.02346852570688889</v>
+        <v>0.01874311108111111</v>
       </c>
       <c r="R31">
-        <v>0.211216731362</v>
+        <v>0.16868799973</v>
       </c>
       <c r="S31">
-        <v>8.808216061455586E-05</v>
+        <v>3.143263836166813E-05</v>
       </c>
       <c r="T31">
-        <v>8.808216061455582E-05</v>
+        <v>3.143263836166813E-05</v>
       </c>
     </row>
   </sheetData>
